--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3505489.854316729</v>
+        <v>3501477.244302736</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7859872.884888268</v>
+        <v>7859872.884888267</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>146.8060263681263</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>378.0272024483911</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734071385</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>20.34543703196442</v>
+        <v>118.306947821948</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>240.2648719523406</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>142.1676505554983</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>114.4746605491558</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>17.40741367508802</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1138,19 +1138,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>256.2422694642179</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>79.10031873785951</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1189,13 +1189,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1311,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>80.00124118081825</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>27.31105153749118</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576153</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>212.5602966632231</v>
       </c>
       <c r="V13" t="n">
-        <v>134.4940861694917</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1615,13 +1615,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>151.3642268094353</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1846,19 +1846,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>74.99129529219235</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>203.0728748221707</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>155.1980648094029</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>99.97427419833815</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>61.17550840396293</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>190.4156246166114</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>207.8693512020452</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>214.4033048062049</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3246,10 +3246,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>273.8348290426799</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695514</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>40.53421095546921</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012152</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>139.090327140092</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856536</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012152</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016444</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.445727774097699</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>59.96838802184498</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>35.41770597126623</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1537.086630593157</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C2" t="n">
-        <v>1168.124113652745</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>809.8584150459947</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>424.0701624477504</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939507</v>
@@ -4351,7 +4351,7 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4363,19 +4363,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
         <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1923.686470657279</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y2" t="n">
-        <v>1923.686470657279</v>
+        <v>1690.129727141859</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>936.5735814686085</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>846.071687106476</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080139</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201688</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695168</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507439</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275696</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.3099827059882</v>
+        <v>1042.179465010818</v>
       </c>
       <c r="C4" t="n">
-        <v>510.7590362090544</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>360.6423967967187</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143256</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1416.425065783662</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V4" t="n">
-        <v>1161.740577577775</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W4" t="n">
-        <v>1161.740577577775</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="X4" t="n">
-        <v>933.7510266797581</v>
+        <v>1444.620508984587</v>
       </c>
       <c r="Y4" t="n">
-        <v>712.9584475362279</v>
+        <v>1223.827929841057</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1032.06112435253</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="C5" t="n">
-        <v>663.0986074121186</v>
+        <v>1535.524858594925</v>
       </c>
       <c r="D5" t="n">
-        <v>663.0986074121186</v>
+        <v>1177.259159988175</v>
       </c>
       <c r="E5" t="n">
-        <v>663.0986074121186</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>252.112702622511</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4564,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923658</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.266054653544</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>1808.800296392464</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1418.660964416652</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>775.9977502341333</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>607.0615673062264</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>456.9449278938906</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4755,22 +4755,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V7" t="n">
-        <v>1424.011591242373</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W7" t="n">
-        <v>1406.42834510592</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X7" t="n">
-        <v>1178.438794207903</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y7" t="n">
-        <v>957.646215064373</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.370295943748</v>
+        <v>2245.732315283596</v>
       </c>
       <c r="C8" t="n">
-        <v>939.4077790033366</v>
+        <v>1876.769798343184</v>
       </c>
       <c r="D8" t="n">
-        <v>581.1420803965862</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>195.3538277983419</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>188.4083270491384</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2635.871647259408</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>2245.732315283596</v>
       </c>
     </row>
     <row r="9">
@@ -4877,25 +4877,25 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>624.6477645191717</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C10" t="n">
-        <v>624.6477645191717</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D10" t="n">
-        <v>624.6477645191717</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1846.485213562414</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="W10" t="n">
-        <v>852.637315417189</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X10" t="n">
-        <v>624.6477645191717</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y10" t="n">
-        <v>624.6477645191717</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="11">
@@ -5023,31 +5023,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5062,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5117,25 +5117,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>352.5519571452619</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452619</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718135</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>699.7311804011399</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>699.7311804011399</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888042</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797186</v>
@@ -5229,22 +5229,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V13" t="n">
-        <v>1619.578945309888</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1330.161775272927</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1102.17222437491</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>881.3796452313796</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5305,25 +5305,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>740.5562989961522</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1965.53275017731</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>615.644930552589</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>615.644930552589</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>465.5282911402533</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578602</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5433,16 +5433,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5472,16 +5472,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1535.492695461337</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1246.075525424376</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1018.085974526359</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>797.2933953828287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5530,37 +5530,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898187001</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3044.370838283061</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>2875.434655355155</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>2799.685872231728</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>2651.772778649335</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>2504.882831151424</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>2337.686731866304</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>4507.978318053498</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>4218.903091397696</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>3964.218603191809</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>3674.801433154848</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>3446.811882256831</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>3226.019303113301</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>719.5738700011939</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
         <v>402.7245934908939</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1122.014913974964</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>901.2223348314336</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5971,13 +5971,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,10 +5986,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6028,10 +6028,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998286</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
         <v>93.81666304797187</v>
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6220,10 +6220,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6232,46 +6232,46 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273902</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>950.7540666811332</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C28" t="n">
-        <v>781.8178837532263</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408905</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2004.723530723313</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1715.648304067511</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1460.963815861624</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1171.546645824663</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1171.546645824663</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>950.7540666811332</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6472,43 +6472,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>847.6442739835331</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1767.492038892281</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1767.492038892281</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1478.07486885532</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>1250.085317957303</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>1029.292738813773</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6682,37 +6682,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168608</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6727,10 +6727,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6782,25 +6782,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>781.3544215660705</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6894,16 +6894,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1411.785016437858</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1183.79546553984</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>963.0028863963103</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6916,70 +6916,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168608</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192468</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111702</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7004,34 +7004,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273899</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273899</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3091.514342801863</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>3091.514342801863</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D37" t="n">
-        <v>2941.397703389528</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E37" t="n">
-        <v>2793.484609807135</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>2646.594662309225</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>2479.398563024105</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866303</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296626</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822165</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998105</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.02030972914</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389148</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098133</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671692</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398592</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4300.437334366412</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4011.36210771061</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>4011.36210771061</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3721.94493767365</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3493.955386775633</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3273.162807632103</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192591</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7241,31 +7241,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.7772127656149</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>782.8410298377081</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253726</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429797</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429797</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578598</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487569</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487569</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831767</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.30283062588</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.88566058892</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.896109690903</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.425677595854</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7493,25 +7493,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>119.290296770379</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7657,13 +7657,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,16 +7724,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327643</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>296.7882229101285</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>296.7882229101285</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>129.5921236250085</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2.738725912720952e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856555</v>
@@ -23469,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>73.624177726021</v>
       </c>
       <c r="V13" t="n">
-        <v>117.6435571543363</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23661,13 +23661,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>100.7734165143927</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>73.62417772602001</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>22.63678056686646</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>24.63391537253443</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>45.44677382459309</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -24603,16 +24603,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>106.0713126946649</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>26.98982571067683</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>78.31512318719894</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>12.68816929391107</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856536</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>78.31512318719612</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25599,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272881</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>216.1389255779969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>104.8770068749577</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>688338.4515082556</v>
+        <v>688338.4515082557</v>
       </c>
     </row>
     <row r="3">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>676874.9361144768</v>
+        <v>676874.9361144766</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>676874.9361144768</v>
+        <v>676874.9361144766</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>676874.9361144766</v>
+        <v>676874.9361144768</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>676874.9361144769</v>
+        <v>676874.9361144766</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>676874.9361144769</v>
+        <v>676874.9361144768</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>676874.9361144768</v>
+        <v>676874.9361144766</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>676874.9361144768</v>
+        <v>676874.9361144766</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244626</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="F2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="G2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="F2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>746610.6047132551</v>
-      </c>
-      <c r="H2" t="n">
-        <v>746610.6047132552</v>
       </c>
       <c r="I2" t="n">
         <v>746610.6047132552</v>
@@ -26340,22 +26340,22 @@
         <v>746610.6047132553</v>
       </c>
       <c r="K2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="L2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="M2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="L2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="M2" t="n">
-        <v>746610.6047132548</v>
-      </c>
       <c r="N2" t="n">
-        <v>746610.6047132557</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
         <v>746610.6047132554</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132555</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26377,10 +26377,10 @@
         <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,16 +26395,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>6.548361852765082e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551161</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815721</v>
       </c>
       <c r="C4" t="n">
         <v>90964.01098815713</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815708</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680586</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680584</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="H4" t="n">
         <v>11776.97621680582</v>
@@ -26441,22 +26441,22 @@
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680598</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
-        <v>11776.97621680583</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="P4" t="n">
         <v>11776.97621680582</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-768179.0601526806</v>
+        <v>-768179.06015268</v>
       </c>
       <c r="C6" t="n">
-        <v>560565.685574912</v>
+        <v>560565.6855749112</v>
       </c>
       <c r="D6" t="n">
-        <v>560565.685574912</v>
+        <v>560565.6855749117</v>
       </c>
       <c r="E6" t="n">
-        <v>308298.6368651876</v>
+        <v>307951.2576108305</v>
       </c>
       <c r="F6" t="n">
-        <v>633711.0986725423</v>
+        <v>633363.7194181854</v>
       </c>
       <c r="G6" t="n">
-        <v>633711.098672542</v>
+        <v>633363.7194181853</v>
       </c>
       <c r="H6" t="n">
-        <v>633711.0986725424</v>
+        <v>633363.7194181852</v>
       </c>
       <c r="I6" t="n">
-        <v>633711.0986725423</v>
+        <v>633363.7194181853</v>
       </c>
       <c r="J6" t="n">
-        <v>416179.8962752649</v>
+        <v>415832.5170209081</v>
       </c>
       <c r="K6" t="n">
-        <v>633711.0986725424</v>
+        <v>633363.7194181853</v>
       </c>
       <c r="L6" t="n">
-        <v>633711.0986725423</v>
+        <v>633363.7194181853</v>
       </c>
       <c r="M6" t="n">
-        <v>548656.0707370301</v>
+        <v>548308.6914826736</v>
       </c>
       <c r="N6" t="n">
-        <v>633711.0986725427</v>
+        <v>633363.7194181853</v>
       </c>
       <c r="O6" t="n">
-        <v>633711.0986725423</v>
+        <v>633363.7194181855</v>
       </c>
       <c r="P6" t="n">
-        <v>633711.0986725423</v>
+        <v>633363.7194181856</v>
       </c>
     </row>
   </sheetData>
@@ -26694,13 +26694,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26715,16 +26715,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.185452315956354e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26962,7 +26962,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26971,10 +26971,10 @@
         <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973548</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>222.9250743103427</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>8.210736207662535</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>146.9013840666634</v>
+        <v>48.93987327667988</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>141.6654981199212</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>268.7540750979551</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,16 +27827,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.115584661503</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27858,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>98.44077215646507</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>331.8214069155939</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27909,13 +27909,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>109.7677841506236</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>259.2119467990998</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="U11" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28380,19 +28380,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28569,19 +28569,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29283,7 +29283,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.605607954283746e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30459,7 +30459,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>8.185452315956354e-14</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30513,7 +30513,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>8.185452315956354e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30522,10 +30522,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>8.185452315956354e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>8.185452315956354e-14</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31837,16 +31837,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>399.1902208908136</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862119</v>
@@ -31855,10 +31855,10 @@
         <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,40 +32074,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>375.1407109807906</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>699.0496615458095</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32256,7 +32256,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32311,19 +32311,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M18" t="n">
-        <v>469.5567819573411</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32338,7 +32338,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32484,7 +32484,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
         <v>926.5868626460027</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,16 +32566,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>272.9327299394441</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32800,10 +32800,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33025,13 +33025,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>162.5000833330459</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33204,7 +33204,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>616.375287159485</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33502,10 +33502,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>397.6543049213403</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067219</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33736,7 +33736,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33748,13 +33748,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>187.2159464875253</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33915,7 +33915,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34213,13 +34213,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>163.5723821283055</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34234,7 +34234,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34380,7 +34380,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460027</v>
@@ -34444,19 +34444,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>244.0266243181833</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>261.3487819164546</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641936</v>
@@ -35503,10 +35503,10 @@
         <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>243.7989988974573</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>556.4534171013651</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M18" t="n">
-        <v>327.4227480353227</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,16 +36214,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>130.3364854949997</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36448,10 +36448,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>23.94570355317167</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>473.7790427150405</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37150,10 +37150,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>263.67989750701</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316015</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37384,7 +37384,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37396,13 +37396,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>55.87423440419198</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>37.76383318075163</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37861,13 +37861,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37882,7 +37882,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38028,7 +38028,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38092,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>101.892590396165</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3501477.244302736</v>
+        <v>3503237.774605522</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7859872.884888267</v>
+        <v>7859872.884888268</v>
       </c>
     </row>
     <row r="11">
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292601</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>83.41943806107047</v>
       </c>
       <c r="Y2" t="n">
-        <v>378.0272024483911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734071385</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,10 +819,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>118.306947821948</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983812</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>125.1544374178899</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>240.2648719523406</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>36.32707961669517</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,10 +1056,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>77.31354443380452</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>114.4746605491558</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>256.2422694642179</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>307.6318019940277</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1308,7 +1308,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>80.00124118081825</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576153</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701362</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>212.5602966632231</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670958</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>45.66054613217651</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>101.9154861872842</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>155.1980648094029</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.702514956955</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>61.17550840396293</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>214.4033048062049</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>40.53421095546921</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1303.529887077737</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4330,25 +4330,25 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052367</v>
@@ -4372,10 +4372,10 @@
         <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180638</v>
+        <v>1987.713327533092</v>
       </c>
       <c r="Y2" t="n">
-        <v>1690.129727141859</v>
+        <v>1987.713327533092</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686085</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106476</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080139</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201688</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695168</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507439</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275696</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1042.179465010818</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
@@ -4518,22 +4518,22 @@
         <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088492</v>
+        <v>1800.875924434057</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088492</v>
+        <v>1800.875924434057</v>
       </c>
       <c r="V4" t="n">
-        <v>1672.610059882605</v>
+        <v>1546.19143622817</v>
       </c>
       <c r="W4" t="n">
-        <v>1672.610059882605</v>
+        <v>1256.77426619121</v>
       </c>
       <c r="X4" t="n">
-        <v>1444.620508984587</v>
+        <v>1028.784715293192</v>
       </c>
       <c r="Y4" t="n">
-        <v>1223.827929841057</v>
+        <v>807.9921361496623</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1904.487375535337</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C5" t="n">
-        <v>1535.524858594925</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1177.259159988175</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796417</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535337</v>
+        <v>2366.344253709365</v>
       </c>
       <c r="Y5" t="n">
-        <v>1904.487375535337</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218342</v>
+        <v>385.564938772426</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1849.200058761417</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1849.200058761417</v>
       </c>
       <c r="T7" t="n">
-        <v>1530.147236421175</v>
+        <v>1849.200058761417</v>
       </c>
       <c r="U7" t="n">
-        <v>1241.044369546818</v>
+        <v>1560.097191887061</v>
       </c>
       <c r="V7" t="n">
-        <v>986.3598813409312</v>
+        <v>1305.412703681174</v>
       </c>
       <c r="W7" t="n">
-        <v>696.9427113039706</v>
+        <v>1015.995533644213</v>
       </c>
       <c r="X7" t="n">
-        <v>468.9531604059532</v>
+        <v>788.0059827461959</v>
       </c>
       <c r="Y7" t="n">
-        <v>248.1605812624231</v>
+        <v>567.2134036026657</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2245.732315283596</v>
+        <v>1859.132475219474</v>
       </c>
       <c r="C8" t="n">
-        <v>1876.769798343184</v>
+        <v>1490.169958279063</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1131.904259672312</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1131.904259672312</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4883,19 +4883,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>994.2880032601528</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>825.3518203322459</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1846.485213562414</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1624.71859813194</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1624.71859813194</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="V10" t="n">
-        <v>1624.71859813194</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1624.71859813194</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1396.729047233923</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>1175.936468090393</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5059,31 +5059,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,40 +5290,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961522</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M15" t="n">
-        <v>1337.934786622704</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N15" t="n">
-        <v>1965.53275017731</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
         <v>2516.421633107662</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277355</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>363.7369613277355</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>363.7369613277355</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>813.3497091711303</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5521,7 +5521,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5545,22 +5545,22 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5740,31 +5740,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,7 +5773,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>538.7363435406111</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6232,13 +6232,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,31 +6247,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.5477693179085</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>700.7543264856228</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="29">
@@ -6457,25 +6457,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,13 +6484,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6727,25 +6727,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,7 +6934,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>472.9099533103043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7548,22 +7548,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.738725912720952e-12</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>73.624177726021</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>57.22910392194134</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,16 +23658,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>116.6691671648106</v>
       </c>
     </row>
     <row r="17">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.63391537253443</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>106.0713126946649</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>146.8157004124962</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>126.7126101431586</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>688338.4515082556</v>
+        <v>688338.4515082557</v>
       </c>
     </row>
     <row r="4">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>676874.9361144768</v>
+        <v>676874.9361144766</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>676874.9361144768</v>
+        <v>676874.9361144766</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>676874.9361144768</v>
+        <v>676874.9361144766</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>676874.9361144768</v>
+        <v>676874.9361144766</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>676874.9361144766</v>
+        <v>676874.9361144768</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244625</v>
+      </c>
+      <c r="C2" t="n">
         <v>759463.6371244626</v>
       </c>
-      <c r="C2" t="n">
-        <v>759463.6371244621</v>
-      </c>
       <c r="D2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="G2" t="n">
         <v>746610.6047132554</v>
@@ -26334,28 +26334,28 @@
         <v>746610.6047132551</v>
       </c>
       <c r="I2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="J2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="M2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="L2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="M2" t="n">
-        <v>746610.6047132553</v>
-      </c>
       <c r="N2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="O2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="P2" t="n">
         <v>746610.6047132554</v>
-      </c>
-      <c r="P2" t="n">
-        <v>746610.6047132555</v>
       </c>
     </row>
     <row r="3">
@@ -26368,19 +26368,19 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>4.14093847211916e-10</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,34 +26420,34 @@
         <v>90964.01098815721</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815718</v>
       </c>
       <c r="D4" t="n">
         <v>90964.0109881571</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680575</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680588</v>
+        <v>11776.97621680578</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680588</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="K4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680587</v>
       </c>
       <c r="M4" t="n">
         <v>11776.97621680582</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-768179.06015268</v>
+        <v>-768179.0601526801</v>
       </c>
       <c r="C6" t="n">
-        <v>560565.6855749112</v>
+        <v>560565.685574912</v>
       </c>
       <c r="D6" t="n">
-        <v>560565.6855749117</v>
+        <v>560565.6855749115</v>
       </c>
       <c r="E6" t="n">
-        <v>307951.2576108305</v>
+        <v>308263.8989397513</v>
       </c>
       <c r="F6" t="n">
-        <v>633363.7194181854</v>
+        <v>633676.3607471071</v>
       </c>
       <c r="G6" t="n">
-        <v>633363.7194181853</v>
+        <v>633676.360747107</v>
       </c>
       <c r="H6" t="n">
-        <v>633363.7194181852</v>
+        <v>633676.3607471065</v>
       </c>
       <c r="I6" t="n">
-        <v>633363.7194181853</v>
+        <v>633676.3607471065</v>
       </c>
       <c r="J6" t="n">
-        <v>415832.5170209081</v>
+        <v>416145.1583498291</v>
       </c>
       <c r="K6" t="n">
-        <v>633363.7194181853</v>
+        <v>633676.3607471067</v>
       </c>
       <c r="L6" t="n">
-        <v>633363.7194181853</v>
+        <v>633676.3607471065</v>
       </c>
       <c r="M6" t="n">
-        <v>548308.6914826736</v>
+        <v>548621.3328115946</v>
       </c>
       <c r="N6" t="n">
-        <v>633363.7194181853</v>
+        <v>633676.3607471065</v>
       </c>
       <c r="O6" t="n">
-        <v>633363.7194181855</v>
+        <v>633676.360747107</v>
       </c>
       <c r="P6" t="n">
-        <v>633363.7194181856</v>
+        <v>633676.3607471068</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.430414738572741e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26792,16 +26792,16 @@
         <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.430414738572741e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26962,19 +26962,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.430414738572741e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>286.3116626173986</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.210736207662535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,10 +27539,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>48.93987327667988</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27590,7 +27590,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>94.39451185827933</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27599,7 +27599,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>141.6654981199212</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>333.4040210617738</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>11.61860823624282</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>105.0742887270134</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>98.44077215646507</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>99.24424374768375</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28061,19 +28061,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>109.7677841506236</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>128.4296311708957</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28143,13 +28143,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-1.205765911401211e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>637.8521160493917</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>699.0496615458095</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32101,16 +32101,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32484,7 +32484,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
         <v>926.5868626460027</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>499.2977362695175</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>556.4534171013651</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
